--- a/resources/experiment 1/predictions/single/RandomForestRegressor/incidence/Angina (INC).xlsx
+++ b/resources/experiment 1/predictions/single/RandomForestRegressor/incidence/Angina (INC).xlsx
@@ -452,783 +452,783 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>19.73559628264295</v>
+        <v>19.68388059701489</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7563309872193159</v>
+        <v>0.7400000000000003</v>
       </c>
       <c r="C2" t="n">
-        <v>54.93116107445621</v>
+        <v>52.80666666666666</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4.437944389165271</v>
+        <v>4.83369817578772</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1538794499618029</v>
+        <v>0.09333333333333335</v>
       </c>
       <c r="C3" t="n">
-        <v>14.87631930291931</v>
+        <v>15.27333333333334</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.687863349917092</v>
+        <v>6.794195688225533</v>
       </c>
       <c r="B4" t="n">
-        <v>0.08213333333333335</v>
+        <v>0.1333333333333334</v>
       </c>
       <c r="C4" t="n">
-        <v>19.38480819633583</v>
+        <v>19.42</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5.862515612414122</v>
+        <v>6.200862354892194</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1606250866780279</v>
+        <v>0.07333333333333332</v>
       </c>
       <c r="C5" t="n">
-        <v>18.62326387192099</v>
+        <v>18.64666666666666</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>12.47030683810384</v>
+        <v>12.32371475953564</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5125141414141415</v>
+        <v>0.5533333333333333</v>
       </c>
       <c r="C6" t="n">
-        <v>36.49580552143546</v>
+        <v>36.36666666666668</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>18.67460378144818</v>
+        <v>18.49568822553895</v>
       </c>
       <c r="B7" t="n">
-        <v>0.516270983309285</v>
+        <v>0.4866666666666667</v>
       </c>
       <c r="C7" t="n">
-        <v>51.24243118965227</v>
+        <v>52.12666666666668</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>25.95136127391314</v>
+        <v>25.75442786069642</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5393666666666662</v>
+        <v>0.8666666666666661</v>
       </c>
       <c r="C8" t="n">
-        <v>66.73378880667583</v>
+        <v>66.59333333333336</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>11.22094780067914</v>
+        <v>11.32527363184078</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5046921522921523</v>
+        <v>0.4333333333333335</v>
       </c>
       <c r="C9" t="n">
-        <v>33.66561813938726</v>
+        <v>31.92000000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>24.72078185659273</v>
+        <v>24.39917081260354</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6255956690822121</v>
+        <v>0.5</v>
       </c>
       <c r="C10" t="n">
-        <v>68.06485222270095</v>
+        <v>67.43333333333335</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>22.45699768189288</v>
+        <v>22.48175787728016</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8553764719685405</v>
+        <v>0.9466666666666667</v>
       </c>
       <c r="C11" t="n">
-        <v>61.98588227675762</v>
+        <v>61.21333333333333</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>18.56062023217246</v>
+        <v>18.34796019900498</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4833871148459382</v>
+        <v>0.4733333333333336</v>
       </c>
       <c r="C12" t="n">
-        <v>48.5148828893329</v>
+        <v>46.84666666666665</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>24.81966943681369</v>
+        <v>25.098839137645</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9574076506724706</v>
+        <v>1.08</v>
       </c>
       <c r="C13" t="n">
-        <v>66.81737324659362</v>
+        <v>68.24666666666667</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>24.24593349292473</v>
+        <v>24.02736318407949</v>
       </c>
       <c r="B14" t="n">
-        <v>0.95233068389009</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>65.3671804867883</v>
+        <v>63.94</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6.751497875700839</v>
+        <v>7.255058043117734</v>
       </c>
       <c r="B15" t="n">
-        <v>0.09913333333333335</v>
+        <v>0.1133333333333334</v>
       </c>
       <c r="C15" t="n">
-        <v>22.6640362721472</v>
+        <v>22.96</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>12.09253837091597</v>
+        <v>12.28839137645106</v>
       </c>
       <c r="B16" t="n">
-        <v>0.388743523143523</v>
+        <v>0.4066666666666666</v>
       </c>
       <c r="C16" t="n">
-        <v>36.55660552143545</v>
+        <v>35.18000000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>17.86826796895747</v>
+        <v>16.64600331674958</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7384764714817345</v>
+        <v>0.7266666666666668</v>
       </c>
       <c r="C17" t="n">
-        <v>48.49209149739151</v>
+        <v>46.64666666666668</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6.694196351575467</v>
+        <v>6.619502487562184</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1516666666666667</v>
+        <v>0.1266666666666667</v>
       </c>
       <c r="C18" t="n">
-        <v>19.38480819633583</v>
+        <v>18.97333333333333</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>22.92554770878651</v>
+        <v>23.15160862354889</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6110317035905275</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C19" t="n">
-        <v>62.59513068085611</v>
+        <v>63.81999999999998</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>14.79828678828082</v>
+        <v>14.1372470978441</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5032625707625705</v>
+        <v>0.4266666666666665</v>
       </c>
       <c r="C20" t="n">
-        <v>38.99940189544157</v>
+        <v>38.47333333333334</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>9.090247058358983</v>
+        <v>9.384112769485901</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1423</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="C21" t="n">
-        <v>29.2070777426392</v>
+        <v>27.84000000000001</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>24.57258769850177</v>
+        <v>24.58494195688216</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9068531878273689</v>
+        <v>0.9800000000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>68.04807338763318</v>
+        <v>67.49999999999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>8.063054063018233</v>
+        <v>8.063250414593691</v>
       </c>
       <c r="B23" t="n">
-        <v>0.2074952380952382</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C23" t="n">
-        <v>23.14926792415531</v>
+        <v>23.74</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>12.4388175076996</v>
+        <v>13.40643449419568</v>
       </c>
       <c r="B24" t="n">
-        <v>0.3404614718614717</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C24" t="n">
-        <v>36.57962370325363</v>
+        <v>37.20000000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>10.28863233041142</v>
+        <v>10.43993366500828</v>
       </c>
       <c r="B25" t="n">
-        <v>0.2574160173160173</v>
+        <v>0.2200000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>28.6547737107337</v>
+        <v>29.35333333333333</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>9.178721079786238</v>
+        <v>8.951641791044766</v>
       </c>
       <c r="B26" t="n">
-        <v>0.3428666666666666</v>
+        <v>0.3666666666666668</v>
       </c>
       <c r="C26" t="n">
-        <v>29.22566940930587</v>
+        <v>29.08000000000001</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>24.92507500329032</v>
+        <v>25.28693200663339</v>
       </c>
       <c r="B27" t="n">
-        <v>0.8216618514103468</v>
+        <v>0.9600000000000005</v>
       </c>
       <c r="C27" t="n">
-        <v>68.12046948043964</v>
+        <v>69.79333333333334</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>19.7502979241192</v>
+        <v>20.19021558872293</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6838389399656318</v>
+        <v>0.6533333333333334</v>
       </c>
       <c r="C28" t="n">
-        <v>53.48118513578703</v>
+        <v>52.04000000000001</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>8.096469098949679</v>
+        <v>8.251575456053054</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1698</v>
+        <v>0.1466666666666667</v>
       </c>
       <c r="C29" t="n">
-        <v>23.73722953754192</v>
+        <v>24.1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>16.23731915537934</v>
+        <v>15.61124378109452</v>
       </c>
       <c r="B30" t="n">
-        <v>0.7078433374200291</v>
+        <v>0.64</v>
       </c>
       <c r="C30" t="n">
-        <v>46.04676418104187</v>
+        <v>44.21333333333334</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>24.37786534820482</v>
+        <v>24.21442786069639</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6456979779440455</v>
+        <v>0.8533333333333331</v>
       </c>
       <c r="C31" t="n">
-        <v>65.44696670767975</v>
+        <v>66.81333333333332</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>24.26649848468954</v>
+        <v>24.89940298507456</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9134835641196376</v>
+        <v>0.9400000000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>66.42600260740413</v>
+        <v>66.80000000000001</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>24.574412650816</v>
+        <v>24.75164179104467</v>
       </c>
       <c r="B33" t="n">
-        <v>0.8427354055912708</v>
+        <v>0.9266666666666669</v>
       </c>
       <c r="C33" t="n">
-        <v>65.5852335341428</v>
+        <v>64.81333333333333</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>22.51493034825859</v>
+        <v>21.72245439469313</v>
       </c>
       <c r="B34" t="n">
-        <v>0.6950523442675574</v>
+        <v>0.78</v>
       </c>
       <c r="C34" t="n">
-        <v>58.2478828829668</v>
+        <v>59.11333333333335</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>12.57369268735687</v>
+        <v>13.72905472636815</v>
       </c>
       <c r="B35" t="n">
-        <v>0.2954900432900432</v>
+        <v>0.2933333333333333</v>
       </c>
       <c r="C35" t="n">
-        <v>37.19891058205939</v>
+        <v>37.98666666666667</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>18.93506926619374</v>
+        <v>19.10686567164178</v>
       </c>
       <c r="B36" t="n">
-        <v>0.625815618601006</v>
+        <v>0.6733333333333333</v>
       </c>
       <c r="C36" t="n">
-        <v>51.13691071013179</v>
+        <v>50.49333333333334</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>11.17601459369816</v>
+        <v>10.73986733001658</v>
       </c>
       <c r="B37" t="n">
-        <v>0.3743058608058608</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="C37" t="n">
-        <v>30.83988590543443</v>
+        <v>30.64000000000001</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>24.93650656931045</v>
+        <v>24.19927031509116</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9799980974679162</v>
+        <v>1.12</v>
       </c>
       <c r="C38" t="n">
-        <v>65.79779703934139</v>
+        <v>66.8133333333333</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>18.66374239911553</v>
+        <v>18.25442786069652</v>
       </c>
       <c r="B39" t="n">
-        <v>0.6068061624649863</v>
+        <v>0.5599999999999998</v>
       </c>
       <c r="C39" t="n">
-        <v>48.55477177822178</v>
+        <v>47.74666666666666</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>8.147060322724991</v>
+        <v>8.33296849087893</v>
       </c>
       <c r="B40" t="n">
-        <v>0.088032110579479</v>
+        <v>0.1800000000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>24.08192163518456</v>
+        <v>25.88666666666667</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>17.14496959646214</v>
+        <v>17.82922056384741</v>
       </c>
       <c r="B41" t="n">
-        <v>0.8946949494949493</v>
+        <v>0.5800000000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>44.49573492063492</v>
+        <v>45.61333333333334</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>22.25001066060389</v>
+        <v>22.45432835820887</v>
       </c>
       <c r="B42" t="n">
-        <v>0.8605867699634685</v>
+        <v>0.9599999999999997</v>
       </c>
       <c r="C42" t="n">
-        <v>62.18780175817063</v>
+        <v>62.42666666666666</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>16.34561001852394</v>
+        <v>15.80056384742951</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6433141898791169</v>
+        <v>0.6800000000000002</v>
       </c>
       <c r="C43" t="n">
-        <v>46.41053003185772</v>
+        <v>46.37333333333334</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>19.96589879702011</v>
+        <v>19.57306799336643</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5910751016209751</v>
+        <v>0.8533333333333331</v>
       </c>
       <c r="C44" t="n">
-        <v>54.68755530407846</v>
+        <v>54.42000000000001</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>23.39850685461577</v>
+        <v>23.85990049751236</v>
       </c>
       <c r="B45" t="n">
-        <v>0.7453410172539056</v>
+        <v>1.046666666666666</v>
       </c>
       <c r="C45" t="n">
-        <v>62.40429185639557</v>
+        <v>63.04666666666665</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>24.14526654682327</v>
+        <v>23.98769485903803</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9110284280443826</v>
+        <v>0.7266666666666666</v>
       </c>
       <c r="C46" t="n">
-        <v>63.50516893575342</v>
+        <v>63.86666666666668</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>25.02249322979396</v>
+        <v>25.41980099502473</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9113230782209755</v>
+        <v>0.8933333333333336</v>
       </c>
       <c r="C47" t="n">
-        <v>68.59739093403827</v>
+        <v>69.24666666666666</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>18.57611245360496</v>
+        <v>18.05489220563847</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5613526377780149</v>
+        <v>0.6866666666666668</v>
       </c>
       <c r="C48" t="n">
-        <v>48.50471365856367</v>
+        <v>47.72666666666665</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>7.229955329174238</v>
+        <v>7.512305140961849</v>
       </c>
       <c r="B49" t="n">
-        <v>0.2072848269377682</v>
+        <v>0.2066666666666667</v>
       </c>
       <c r="C49" t="n">
-        <v>21.17355411985675</v>
+        <v>21.65333333333333</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>10.60218573797676</v>
+        <v>10.68968490878938</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1028</v>
+        <v>0.1200000000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>30.74905614352966</v>
+        <v>31.71333333333335</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4.43742612191566</v>
+        <v>4.669718076285232</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0449013496307614</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C51" t="n">
-        <v>14.78203120768121</v>
+        <v>14.79333333333333</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>22.52137871525005</v>
+        <v>21.93313432835812</v>
       </c>
       <c r="B52" t="n">
-        <v>0.6504193965529983</v>
+        <v>0.9399999999999997</v>
       </c>
       <c r="C52" t="n">
-        <v>60.83732874281928</v>
+        <v>60.50000000000004</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>18.19670244735912</v>
+        <v>17.97568822553897</v>
       </c>
       <c r="B53" t="n">
-        <v>0.823953167073281</v>
+        <v>0.8933333333333333</v>
       </c>
       <c r="C53" t="n">
-        <v>48.51169467199469</v>
+        <v>49.29333333333333</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>6.631578723432439</v>
+        <v>7.041592039800984</v>
       </c>
       <c r="B54" t="n">
-        <v>0.2128117216117216</v>
+        <v>0.2466666666666668</v>
       </c>
       <c r="C54" t="n">
-        <v>22.37565373246466</v>
+        <v>21.65999999999999</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>8.984746584537612</v>
+        <v>9.402918739635149</v>
       </c>
       <c r="B55" t="n">
-        <v>0.3706318681318681</v>
+        <v>0.2866666666666667</v>
       </c>
       <c r="C55" t="n">
-        <v>29.1722027426392</v>
+        <v>28.32</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>24.46456136878009</v>
+        <v>24.50275290215577</v>
       </c>
       <c r="B56" t="n">
-        <v>0.8087739536213557</v>
+        <v>0.8933333333333334</v>
       </c>
       <c r="C56" t="n">
-        <v>65.02981210040414</v>
+        <v>65.14666666666666</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>24.44895628681499</v>
+        <v>24.39651741293524</v>
       </c>
       <c r="B57" t="n">
-        <v>0.7088809223169957</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C57" t="n">
-        <v>66.61170890062422</v>
+        <v>66.16000000000001</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>11.27834074074072</v>
+        <v>11.17595356550579</v>
       </c>
       <c r="B58" t="n">
-        <v>0.4391058608058607</v>
+        <v>0.46</v>
       </c>
       <c r="C58" t="n">
-        <v>30.8251525721011</v>
+        <v>31.7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>22.54771120273455</v>
+        <v>22.88391376451066</v>
       </c>
       <c r="B59" t="n">
-        <v>0.7665515022005067</v>
+        <v>0.4599999999999998</v>
       </c>
       <c r="C59" t="n">
-        <v>60.97860620489535</v>
+        <v>62.66</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>7.58084908789384</v>
+        <v>7.980431177446095</v>
       </c>
       <c r="B60" t="n">
-        <v>0.06180000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="C60" t="n">
-        <v>23.51231713050452</v>
+        <v>25.53333333333333</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>23.78603897430131</v>
+        <v>23.95794361525699</v>
       </c>
       <c r="B61" t="n">
-        <v>0.909215414521525</v>
+        <v>0.9666666666666668</v>
       </c>
       <c r="C61" t="n">
-        <v>65.936050985216</v>
+        <v>66.77333333333335</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>22.12328992697046</v>
+        <v>22.14971807628514</v>
       </c>
       <c r="B62" t="n">
-        <v>0.8184920280253869</v>
+        <v>0.8466666666666665</v>
       </c>
       <c r="C62" t="n">
-        <v>61.79965976593512</v>
+        <v>60.05333333333331</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>24.17626346047529</v>
+        <v>24.49946932006623</v>
       </c>
       <c r="B63" t="n">
-        <v>0.643160233918129</v>
+        <v>0.8200000000000004</v>
       </c>
       <c r="C63" t="n">
-        <v>66.50237693034985</v>
+        <v>67.67333333333332</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>7.853838916528453</v>
+        <v>7.890646766169143</v>
       </c>
       <c r="B64" t="n">
-        <v>0.1002666666666667</v>
+        <v>0.1533333333333334</v>
       </c>
       <c r="C64" t="n">
-        <v>23.26222030510769</v>
+        <v>23.78666666666667</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>22.92264654073738</v>
+        <v>21.90497512437803</v>
       </c>
       <c r="B65" t="n">
-        <v>0.6046629667083331</v>
+        <v>0.5466666666666667</v>
       </c>
       <c r="C65" t="n">
-        <v>64.72607181379215</v>
+        <v>61.31333333333336</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>21.24560364842445</v>
+        <v>21.40354892205632</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5226428147016381</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="C66" t="n">
-        <v>57.54830164483356</v>
+        <v>57.08000000000002</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>19.53504421249088</v>
+        <v>19.80447761194025</v>
       </c>
       <c r="B67" t="n">
-        <v>0.902184849653178</v>
+        <v>0.7466666666666669</v>
       </c>
       <c r="C67" t="n">
-        <v>55.66596192236132</v>
+        <v>55.13333333333333</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>9.019470633604456</v>
+        <v>9.054925373134314</v>
       </c>
       <c r="B68" t="n">
-        <v>0.1555120663650076</v>
+        <v>0.2866666666666668</v>
       </c>
       <c r="C68" t="n">
-        <v>25.98252541718688</v>
+        <v>26.00666666666666</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>24.49523828103369</v>
+        <v>24.3590381426201</v>
       </c>
       <c r="B69" t="n">
-        <v>0.8284574064346188</v>
+        <v>0.8733333333333333</v>
       </c>
       <c r="C69" t="n">
-        <v>68.12651019516926</v>
+        <v>66.97999999999998</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>8.172161483587347</v>
+        <v>8.518507462686557</v>
       </c>
       <c r="B70" t="n">
-        <v>0.08474062428799271</v>
+        <v>0.1600000000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>24.08192163518456</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>12.72217689331122</v>
+        <v>12.96606965174128</v>
       </c>
       <c r="B71" t="n">
-        <v>0.3666480192076829</v>
+        <v>0.3533333333333332</v>
       </c>
       <c r="C71" t="n">
-        <v>36.6965221889222</v>
+        <v>36.65333333333333</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>15.14679605364231</v>
+        <v>15.36159203980099</v>
       </c>
       <c r="B72" t="n">
-        <v>0.6117421534188454</v>
+        <v>0.5933333333333333</v>
       </c>
       <c r="C72" t="n">
-        <v>44.12391213863982</v>
+        <v>41.77333333333334</v>
       </c>
     </row>
   </sheetData>
